--- a/居/data/食事.xlsx
+++ b/居/data/食事.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\居\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk491\Desktop\居\Kamui\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B913E-BC80-4314-B22D-FC0C70CE7929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACF9BD-F93F-48C4-B466-79331FFF83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="4215" windowWidth="33360" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名物" sheetId="2" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炙燒醋漬鯖魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干貝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>枝豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>醃漬小黃瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,22 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雞頭肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雞膝軟骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>豬五花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鰻魚肝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>維也納香腸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山藥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>燒鳥五點盛合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>酒蒸海瓜仔/玉子燒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生拌鮭魚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鹽醬豬五花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唐揚雞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +264,38 @@
   </si>
   <si>
     <t>鍋燒烏龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醃漬毛豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜炸蝦卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞松坂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹽烤厚切豬舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本山藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒蒸海瓜仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海道奶油燉菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酥炸玉米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,17 +656,20 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,20 +693,20 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -711,7 +714,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>260</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>240</v>
@@ -736,14 +739,17 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>80</v>
@@ -751,7 +757,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -759,7 +765,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>80</v>
@@ -767,7 +773,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -775,15 +781,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>120</v>
@@ -791,7 +797,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -813,28 +819,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AADC8AA-43E8-4F19-92AC-A898FFB8B32D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B1">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -845,10 +862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68448670-5EF0-4873-A6B8-8B28DD412274}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -858,15 +875,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -874,23 +891,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -898,42 +915,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856FBE1-3B2A-49F5-BDAA-77FDFB24C524}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +963,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>550</v>
@@ -968,10 +977,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADA8A30-452A-4A81-BF43-DF930B23A00F}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,15 +990,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>180</v>
@@ -997,7 +1006,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>180</v>
@@ -1005,7 +1014,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1013,39 +1022,39 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>140</v>
@@ -1053,23 +1062,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1077,15 +1086,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>160</v>
@@ -1093,7 +1102,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -1101,23 +1110,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>160</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>160</v>
@@ -1125,15 +1134,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>260</v>
@@ -1141,18 +1150,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1163,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A2892-9A7F-44A9-9B85-2332CD683054}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,15 +1177,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>160</v>
@@ -1192,7 +1193,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>160</v>
@@ -1200,7 +1201,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1208,33 +1209,41 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
         <v>170</v>
       </c>
     </row>
@@ -1248,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C645E975-AC67-44E0-B061-C20785F1D2C9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>80</v>
@@ -1267,15 +1276,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>180</v>
@@ -1283,7 +1292,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>180</v>
@@ -1291,10 +1300,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
